--- a/gamma_Q_3/pickles/final_scores.xlsx
+++ b/gamma_Q_3/pickles/final_scores.xlsx
@@ -483,13 +483,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="C2">
-        <v>0.12</v>
+        <v>0.119</v>
       </c>
       <c r="D2">
-        <v>0.097</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -497,13 +497,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.111</v>
+        <v>0.055</v>
       </c>
       <c r="C3">
-        <v>0.061</v>
+        <v>0.13</v>
       </c>
       <c r="D3">
-        <v>0.036</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -511,13 +511,13 @@
         <v>5</v>
       </c>
       <c r="B4">
+        <v>0.046</v>
+      </c>
+      <c r="C4">
+        <v>0.017</v>
+      </c>
+      <c r="D4">
         <v>-0.001</v>
-      </c>
-      <c r="C4">
-        <v>-0.004</v>
-      </c>
-      <c r="D4">
-        <v>0.034</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -525,13 +525,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="C5">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="D5">
-        <v>0.09</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -539,13 +539,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.087</v>
+        <v>0.14</v>
       </c>
       <c r="C6">
-        <v>0.131</v>
+        <v>0.177</v>
       </c>
       <c r="D6">
-        <v>0.117</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -553,13 +553,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="C7">
-        <v>0.131</v>
+        <v>0.177</v>
       </c>
       <c r="D7">
-        <v>0.117</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -567,7 +567,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -581,13 +581,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.12</v>
+        <v>0.061</v>
       </c>
       <c r="C9">
-        <v>0.114</v>
+        <v>0.1</v>
       </c>
       <c r="D9">
-        <v>0.168</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -595,13 +595,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.057</v>
+        <v>0.035</v>
       </c>
       <c r="C10">
-        <v>0.062</v>
+        <v>0.075</v>
       </c>
       <c r="D10">
-        <v>0.14</v>
+        <v>0.084</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -609,13 +609,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.07</v>
+        <v>0.03</v>
       </c>
       <c r="C11">
-        <v>0.049</v>
+        <v>0.069</v>
       </c>
       <c r="D11">
-        <v>0.086</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -623,13 +623,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.045</v>
+        <v>0.014</v>
       </c>
       <c r="C12">
-        <v>0.011</v>
+        <v>0.031</v>
       </c>
       <c r="D12">
-        <v>0.08</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -637,13 +637,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.036</v>
+        <v>0.168</v>
       </c>
       <c r="C13">
-        <v>0.097</v>
+        <v>0.158</v>
       </c>
       <c r="D13">
-        <v>0.098</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -651,13 +651,13 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>0.12</v>
+        <v>0.168</v>
       </c>
       <c r="C14">
-        <v>0.114</v>
+        <v>0.158</v>
       </c>
       <c r="D14">
-        <v>0.168</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -665,10 +665,10 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -679,13 +679,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.125</v>
+        <v>0.102</v>
       </c>
       <c r="C16">
-        <v>0.058</v>
+        <v>0.101</v>
       </c>
       <c r="D16">
-        <v>0.073</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -693,13 +693,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.095</v>
+        <v>0.096</v>
       </c>
       <c r="C17">
-        <v>0.063</v>
+        <v>0.051</v>
       </c>
       <c r="D17">
-        <v>0.093</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -707,13 +707,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.054</v>
+        <v>0.032</v>
       </c>
       <c r="C18">
-        <v>0.026</v>
+        <v>-0.009</v>
       </c>
       <c r="D18">
-        <v>0.112</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -721,13 +721,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.065</v>
+        <v>0.034</v>
       </c>
       <c r="C19">
-        <v>0.104</v>
+        <v>0.003</v>
       </c>
       <c r="D19">
-        <v>0.041</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -735,13 +735,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.1</v>
+        <v>0.099</v>
       </c>
       <c r="C20">
-        <v>0.107</v>
+        <v>0.06</v>
       </c>
       <c r="D20">
-        <v>0.153</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -749,13 +749,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>0.125</v>
+        <v>0.102</v>
       </c>
       <c r="C21">
-        <v>0.107</v>
+        <v>0.101</v>
       </c>
       <c r="D21">
-        <v>0.153</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -766,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>0.092</v>
+        <v>0.071</v>
       </c>
       <c r="C23">
-        <v>0.111</v>
+        <v>0.079</v>
       </c>
       <c r="D23">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -791,13 +791,13 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>0.054</v>
+        <v>0.031</v>
       </c>
       <c r="C24">
+        <v>0.1</v>
+      </c>
+      <c r="D24">
         <v>0.088</v>
-      </c>
-      <c r="D24">
-        <v>0.12</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -805,13 +805,13 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>0.061</v>
+        <v>0.054</v>
       </c>
       <c r="C25">
-        <v>0.121</v>
+        <v>0.048</v>
       </c>
       <c r="D25">
-        <v>0.066</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -819,13 +819,13 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>0.048</v>
+        <v>0.049</v>
       </c>
       <c r="C26">
-        <v>0.002</v>
+        <v>0.076</v>
       </c>
       <c r="D26">
-        <v>0.101</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -833,13 +833,13 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>0.179</v>
+        <v>0.08</v>
       </c>
       <c r="C27">
-        <v>0.067</v>
+        <v>0.103</v>
       </c>
       <c r="D27">
-        <v>0.021</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -847,13 +847,13 @@
         <v>8</v>
       </c>
       <c r="B28">
-        <v>0.179</v>
+        <v>0.08</v>
       </c>
       <c r="C28">
-        <v>0.121</v>
+        <v>0.103</v>
       </c>
       <c r="D28">
-        <v>0.13</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -875,13 +875,13 @@
         <v>25</v>
       </c>
       <c r="B30">
-        <v>0.157</v>
+        <v>0.09</v>
       </c>
       <c r="C30">
-        <v>0.127</v>
+        <v>0.047</v>
       </c>
       <c r="D30">
-        <v>0.122</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -889,13 +889,13 @@
         <v>26</v>
       </c>
       <c r="B31">
-        <v>0.055</v>
+        <v>0.049</v>
       </c>
       <c r="C31">
-        <v>0.1</v>
+        <v>0.093</v>
       </c>
       <c r="D31">
-        <v>0.074</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -903,13 +903,13 @@
         <v>27</v>
       </c>
       <c r="B32">
-        <v>0.112</v>
+        <v>0.014</v>
       </c>
       <c r="C32">
-        <v>0.055</v>
+        <v>-0.002</v>
       </c>
       <c r="D32">
-        <v>0.085</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -917,13 +917,13 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <v>0.053</v>
+        <v>0.005</v>
       </c>
       <c r="C33">
-        <v>0.133</v>
+        <v>-0.004</v>
       </c>
       <c r="D33">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -931,13 +931,13 @@
         <v>29</v>
       </c>
       <c r="B34">
-        <v>0.046</v>
+        <v>0.14</v>
       </c>
       <c r="C34">
-        <v>0.028</v>
+        <v>0.161</v>
       </c>
       <c r="D34">
-        <v>0.133</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -945,13 +945,13 @@
         <v>8</v>
       </c>
       <c r="B35">
-        <v>0.157</v>
+        <v>0.14</v>
       </c>
       <c r="C35">
-        <v>0.133</v>
+        <v>0.161</v>
       </c>
       <c r="D35">
-        <v>0.133</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -959,10 +959,10 @@
         <v>9</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
